--- a/output/05-overall-quality-continuous.xlsx
+++ b/output/05-overall-quality-continuous.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
+    <sheet name="nr_studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -410,22 +411,22 @@
         <v>82</v>
       </c>
       <c r="C2">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="D2">
-        <v>0.009027371240793088</v>
+        <v>0.008498832191968928</v>
       </c>
       <c r="E2">
-        <v>0.05351361660999574</v>
+        <v>0.05055652050667844</v>
       </c>
       <c r="F2">
-        <v>96.97120530358104</v>
+        <v>97.74939134949946</v>
       </c>
       <c r="G2">
-        <v>82.97406358859695</v>
+        <v>83.68198448486274</v>
       </c>
       <c r="H2">
-        <v>13.99714171498409</v>
+        <v>14.06740686463673</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +439,22 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="D3">
-        <v>0.004901804366504013</v>
+        <v>0.003358330498989658</v>
       </c>
       <c r="E3">
-        <v>0.05628544904923413</v>
+        <v>0.05303031348248766</v>
       </c>
       <c r="F3">
-        <v>95.19448391048051</v>
+        <v>95.05703761436311</v>
       </c>
       <c r="G3">
-        <v>87.56830834530197</v>
+        <v>89.39573906161222</v>
       </c>
       <c r="H3">
-        <v>7.62617556517854</v>
+        <v>5.66129855275089</v>
       </c>
     </row>
   </sheetData>
@@ -538,25 +539,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06668726457464257</v>
+        <v>0.04639171878434833</v>
       </c>
       <c r="E2">
-        <v>0.07149191104672269</v>
+        <v>0.06660707138845227</v>
       </c>
       <c r="F2">
-        <v>0.9341810174870987</v>
+        <v>0.6969987142224494</v>
       </c>
       <c r="G2">
-        <v>0.3590466649263727</v>
+        <v>0.491887878560833</v>
       </c>
       <c r="H2">
-        <v>-0.08019717918313124</v>
+        <v>-0.09013262919490939</v>
       </c>
       <c r="I2">
-        <v>0.2107370737094231</v>
+        <v>0.181204681005399</v>
       </c>
       <c r="J2">
-        <v>25.28526377461056</v>
+        <v>26.43614495246367</v>
       </c>
     </row>
     <row r="3">
@@ -576,25 +577,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.01564789747344956</v>
+        <v>0.01755648388327493</v>
       </c>
       <c r="E3">
-        <v>0.01959826105267751</v>
+        <v>0.01835977092344859</v>
       </c>
       <c r="F3">
-        <v>0.7984981311968237</v>
+        <v>0.9563457029266192</v>
       </c>
       <c r="G3">
-        <v>0.4314139000160855</v>
+        <v>0.3468955748784063</v>
       </c>
       <c r="H3">
-        <v>-0.0245213604064572</v>
+        <v>-0.02000834332856446</v>
       </c>
       <c r="I3">
-        <v>0.0557667084860394</v>
+        <v>0.05507181264810409</v>
       </c>
       <c r="J3">
-        <v>27.53995287567766</v>
+        <v>28.66008235053942</v>
       </c>
     </row>
     <row r="4">
@@ -614,25 +615,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0007460367727213308</v>
+        <v>0.000504142035388867</v>
       </c>
       <c r="E4">
-        <v>0.0902559315140975</v>
+        <v>0.07945720451557985</v>
       </c>
       <c r="F4">
-        <v>0.008265793711433739</v>
+        <v>0.006344825257485614</v>
       </c>
       <c r="G4">
-        <v>0.9935050275138104</v>
+        <v>0.9950089843215419</v>
       </c>
       <c r="H4">
-        <v>-0.1880051814744058</v>
+        <v>-0.1651784088797527</v>
       </c>
       <c r="I4">
-        <v>0.1894441118194165</v>
+        <v>0.1661590194552117</v>
       </c>
       <c r="J4">
-        <v>16.33621393933356</v>
+        <v>17.5941029536253</v>
       </c>
     </row>
     <row r="5">
@@ -652,25 +653,204 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.01433192343289131</v>
+        <v>0.0127506238325392</v>
       </c>
       <c r="E5">
-        <v>0.02677144124176046</v>
+        <v>0.02371268760343636</v>
       </c>
       <c r="F5">
-        <v>0.5353803966952645</v>
+        <v>0.5377422882316016</v>
       </c>
       <c r="G5">
-        <v>0.5989666091139123</v>
+        <v>0.5969555672156028</v>
       </c>
       <c r="H5">
-        <v>-0.04190383323873607</v>
+        <v>-0.03684020372310787</v>
       </c>
       <c r="I5">
-        <v>0.07047715914630627</v>
+        <v>0.06227880647813155</v>
       </c>
       <c r="J5">
-        <v>17.92629928316092</v>
+        <v>19.13119962178465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>393</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
